--- a/학사관리 샘플데이터/샘플-성적일람표-과목별성적1.xlsx
+++ b/학사관리 샘플데이터/샘플-성적일람표-과목별성적1.xlsx
@@ -556,7 +556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
@@ -588,15 +588,15 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:D17" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -605,15 +605,15 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:D34" ca="1" si="1">RANDBETWEEN(50,100)</f>
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -622,15 +622,15 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -639,15 +639,15 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -656,11 +656,11 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
@@ -673,15 +673,15 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -690,15 +690,15 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -707,15 +707,15 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -728,11 +728,11 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
         <v>61</v>
-      </c>
-      <c r="D10">
-        <f t="shared" ca="1" si="0"/>
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -741,15 +741,15 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -758,15 +758,15 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -775,15 +775,15 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
         <v>79</v>
       </c>
-      <c r="C13">
-        <f t="shared" ca="1" si="0"/>
-        <v>77</v>
-      </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -792,15 +792,15 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -809,15 +809,15 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -826,15 +826,15 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -843,15 +843,15 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -860,15 +860,15 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -877,15 +877,15 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -894,15 +894,15 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="1"/>
         <v>93</v>
       </c>
-      <c r="C20">
-        <f t="shared" ca="1" si="1"/>
-        <v>58</v>
-      </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -911,15 +911,15 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -928,15 +928,15 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -945,15 +945,15 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -962,15 +962,15 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -979,15 +979,15 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -996,15 +996,15 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1013,15 +1013,15 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1030,15 +1030,15 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1047,15 +1047,15 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1064,15 +1064,15 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1081,15 +1081,15 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="1"/>
         <v>88</v>
-      </c>
-      <c r="D31">
-        <f t="shared" ca="1" si="1"/>
-        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1098,15 +1098,15 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1115,15 +1115,15 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1132,15 +1132,15 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1149,15 +1149,15 @@
       </c>
       <c r="B35">
         <f t="shared" ref="B35:D51" ca="1" si="2">RANDBETWEEN(50,100)</f>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1166,15 +1166,15 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1183,15 +1183,15 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1200,15 +1200,15 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="2"/>
         <v>55</v>
-      </c>
-      <c r="C38">
-        <f t="shared" ca="1" si="2"/>
-        <v>65</v>
-      </c>
-      <c r="D38">
-        <f t="shared" ca="1" si="2"/>
-        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1217,15 +1217,15 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1234,15 +1234,15 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1251,15 +1251,15 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1268,15 +1268,15 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1285,15 +1285,15 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1302,15 +1302,15 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1319,15 +1319,15 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1336,15 +1336,15 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1353,15 +1353,15 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1370,15 +1370,15 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1387,15 +1387,15 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1404,15 +1404,15 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ca="1" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="2"/>
         <v>69</v>
-      </c>
-      <c r="C50">
-        <f t="shared" ca="1" si="2"/>
-        <v>71</v>
-      </c>
-      <c r="D50">
-        <f t="shared" ca="1" si="2"/>
-        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1421,15 +1421,15 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
